--- a/OpenGovCore/data/raw_data/Parliamentary_constituencies_list.xlsx
+++ b/OpenGovCore/data/raw_data/Parliamentary_constituencies_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="974" firstSheet="25" activeTab="35"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="974" firstSheet="24" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Andhra Pradesh" sheetId="1" r:id="rId1"/>
@@ -1554,9 +1554,6 @@
     <t>Mathurapur</t>
   </si>
   <si>
-    <t>Diamond Harbour</t>
-  </si>
-  <si>
     <t>Jadavpur</t>
   </si>
   <si>
@@ -1675,6 +1672,9 @@
   </si>
   <si>
     <t>Puducherry</t>
+  </si>
+  <si>
+    <t>Diamond</t>
   </si>
 </sst>
 </file>
@@ -4750,7 +4750,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5520,8 +5520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -6346,7 +6346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B2">
         <v>1</v>
